--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,238 +40,211 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>chaos</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>proud</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -629,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -748,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -798,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.96</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7142857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.925</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,37 +1121,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.2074468085106383</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6363636363636364</v>
+        <v>0.2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.796875</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.8518518518518519</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,45 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.4074074074074074</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>16</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.8431372549019608</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,245 +1339,125 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>17</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.8333333333333334</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.7253521126760564</v>
+      </c>
+      <c r="L19">
+        <v>103</v>
+      </c>
+      <c r="M19">
+        <v>103</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L20">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>10</v>
       </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.351931330472103</v>
-      </c>
-      <c r="C18">
-        <v>82</v>
-      </c>
-      <c r="D18">
-        <v>82</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>151</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L18">
-        <v>42</v>
-      </c>
-      <c r="M18">
-        <v>42</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>22</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L19">
-        <v>46</v>
-      </c>
-      <c r="M19">
-        <v>46</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.225</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>62</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L21">
         <v>26</v>
       </c>
-      <c r="B21">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>68</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L21">
-        <v>44</v>
-      </c>
       <c r="M21">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,326 +1472,278 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L22">
+        <v>75</v>
+      </c>
+      <c r="M22">
+        <v>75</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L23">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L24">
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <v>35</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>0.675</v>
+      </c>
+      <c r="L25">
+        <v>108</v>
+      </c>
+      <c r="M25">
+        <v>108</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L26">
+        <v>59</v>
+      </c>
+      <c r="M26">
+        <v>59</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>0.62</v>
+      </c>
+      <c r="L27">
+        <v>31</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L28">
+        <v>29</v>
+      </c>
+      <c r="M28">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L29">
+        <v>17</v>
+      </c>
+      <c r="M29">
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L31">
+        <v>36</v>
+      </c>
+      <c r="M31">
+        <v>36</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>27</v>
       </c>
-      <c r="B22">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>98</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>0.8125</v>
-      </c>
-      <c r="L22">
-        <v>13</v>
-      </c>
-      <c r="M22">
-        <v>13</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.03763440860215054</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>179</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>0.8</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K24">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L27">
-        <v>43</v>
-      </c>
-      <c r="M27">
-        <v>43</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L28">
-        <v>21</v>
-      </c>
-      <c r="M28">
-        <v>21</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29">
-        <v>0.72</v>
-      </c>
-      <c r="L29">
-        <v>18</v>
-      </c>
-      <c r="M29">
-        <v>18</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30">
-        <v>0.7123287671232876</v>
-      </c>
-      <c r="L30">
-        <v>52</v>
-      </c>
-      <c r="M30">
-        <v>52</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L31">
-        <v>12</v>
-      </c>
-      <c r="M31">
-        <v>12</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="K32">
-        <v>0.7</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L32">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="M32">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1974,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.6410256410256411</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2000,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2026,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2052,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.5909090909090909</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2078,21 +1859,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.5882352941176471</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2104,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.5833333333333334</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2130,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2156,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.5757575757575758</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2182,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.5625</v>
+        <v>0.45</v>
       </c>
       <c r="L41">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="M41">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2208,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>63</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="L42">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2234,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.5492957746478874</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L43">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2260,21 +2041,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.5263157894736842</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2286,21 +2067,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.5116279069767442</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L45">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2312,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.393305439330544</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2338,21 +2119,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.4857142857142857</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2364,21 +2145,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.4642857142857143</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2390,21 +2171,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.44</v>
+        <v>0.3125</v>
       </c>
       <c r="L49">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2416,21 +2197,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.4239130434782609</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L50">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2442,21 +2223,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.375</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L51">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2468,21 +2249,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.3125</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M52">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2494,21 +2275,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>870</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.2702702702702703</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L53">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2520,21 +2301,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>27</v>
+        <v>884</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.2631578947368421</v>
+        <v>0.01499423298731257</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2546,111 +2327,85 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>28</v>
+        <v>854</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K55">
-        <v>0.2258064516129032</v>
+        <v>0.01168770453482936</v>
       </c>
       <c r="L55">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>0.03349282296650718</v>
+        <v>0.009383797309978105</v>
       </c>
       <c r="L56">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>202</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K57">
-        <v>0.02195121951219512</v>
+        <v>0.007409793814432989</v>
       </c>
       <c r="L57">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K58">
-        <v>0.0124777183600713</v>
-      </c>
-      <c r="L58">
-        <v>14</v>
-      </c>
-      <c r="M58">
-        <v>15</v>
-      </c>
-      <c r="N58">
-        <v>0.93</v>
-      </c>
-      <c r="O58">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>1108</v>
+        <v>3081</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
@@ -70,7 +70,7 @@
     <t>sc</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>risk</t>
   </si>
   <si>
     <t>low</t>
@@ -82,31 +82,37 @@
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>friend</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>special</t>
   </si>
   <si>
     <t>thanks</t>
@@ -115,18 +121,18 @@
     <t>nice</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
@@ -136,9 +142,6 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -151,100 +154,100 @@
     <t>good</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
@@ -698,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -721,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>15</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5958904109589042</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C8">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5555555555555556</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5517241379310345</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1071,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2170542635658915</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D11">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8421052631578947</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,37 +1124,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2074468085106383</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8414634146341463</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L12">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1248,13 @@
         <v>33</v>
       </c>
       <c r="K14">
-        <v>0.796875</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L14">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0873015873015873</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1321,13 +1324,13 @@
         <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7833333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L16">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1373,13 +1376,13 @@
         <v>37</v>
       </c>
       <c r="K18">
-        <v>0.7407407407407407</v>
+        <v>0.7734375</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1391,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1399,13 +1402,13 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>0.7253521126760564</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M19">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1417,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1425,13 +1428,13 @@
         <v>39</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1443,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1451,13 +1454,13 @@
         <v>40</v>
       </c>
       <c r="K21">
-        <v>0.7222222222222222</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1469,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1477,13 +1480,13 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7075471698113207</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1495,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1503,13 +1506,13 @@
         <v>42</v>
       </c>
       <c r="K23">
-        <v>0.6956521739130435</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1521,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1529,13 +1532,13 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6862745098039216</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1547,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1555,13 +1558,13 @@
         <v>44</v>
       </c>
       <c r="K25">
-        <v>0.675</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L25">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1573,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1581,13 +1584,13 @@
         <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6276595744680851</v>
+        <v>0.68125</v>
       </c>
       <c r="L26">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="M26">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1599,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1607,13 +1610,13 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>0.62</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1625,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1633,7 +1636,7 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>0.6170212765957447</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L28">
         <v>29</v>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1659,13 +1662,13 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>0.6071428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1677,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1685,13 +1688,13 @@
         <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5833333333333334</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1703,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1711,13 +1714,13 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1729,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1737,13 +1740,13 @@
         <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5456919060052219</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L32">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1755,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>174</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1763,13 +1766,13 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1781,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1789,13 +1792,13 @@
         <v>53</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1807,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1818,10 +1821,10 @@
         <v>0.5</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1833,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1841,13 +1844,13 @@
         <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1859,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1867,13 +1870,13 @@
         <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4651162790697674</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1885,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1893,13 +1896,13 @@
         <v>57</v>
       </c>
       <c r="K38">
-        <v>0.4642857142857143</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1911,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1919,13 +1922,13 @@
         <v>58</v>
       </c>
       <c r="K39">
-        <v>0.4606741573033708</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L39">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1937,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1945,13 +1948,13 @@
         <v>59</v>
       </c>
       <c r="K40">
-        <v>0.4545454545454545</v>
+        <v>0.45</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1963,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1971,13 +1974,13 @@
         <v>60</v>
       </c>
       <c r="K41">
-        <v>0.45</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L41">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="M41">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1989,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1997,13 +2000,13 @@
         <v>61</v>
       </c>
       <c r="K42">
-        <v>0.45</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2015,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2023,13 +2026,13 @@
         <v>62</v>
       </c>
       <c r="K43">
-        <v>0.4461538461538462</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2041,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2049,13 +2052,13 @@
         <v>63</v>
       </c>
       <c r="K44">
-        <v>0.4203389830508474</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L44">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2067,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>171</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2075,13 +2078,13 @@
         <v>64</v>
       </c>
       <c r="K45">
-        <v>0.3972602739726027</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2093,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2101,13 +2104,13 @@
         <v>65</v>
       </c>
       <c r="K46">
-        <v>0.393305439330544</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="L46">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2119,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2127,13 +2130,13 @@
         <v>66</v>
       </c>
       <c r="K47">
-        <v>0.3714285714285714</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2145,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2153,13 +2156,13 @@
         <v>67</v>
       </c>
       <c r="K48">
-        <v>0.358974358974359</v>
+        <v>0.35</v>
       </c>
       <c r="L48">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2171,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2179,13 +2182,13 @@
         <v>68</v>
       </c>
       <c r="K49">
-        <v>0.3125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2197,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2205,13 +2208,13 @@
         <v>69</v>
       </c>
       <c r="K50">
-        <v>0.1857142857142857</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2223,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2231,13 +2234,13 @@
         <v>70</v>
       </c>
       <c r="K51">
-        <v>0.03365384615384615</v>
+        <v>0.265625</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2249,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>402</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2257,13 +2260,13 @@
         <v>71</v>
       </c>
       <c r="K52">
-        <v>0.02684563758389262</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2275,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>870</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2283,13 +2286,13 @@
         <v>72</v>
       </c>
       <c r="K53">
-        <v>0.01886792452830189</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2301,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>884</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2309,13 +2312,13 @@
         <v>73</v>
       </c>
       <c r="K54">
-        <v>0.01499423298731257</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2327,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>854</v>
+        <v>881</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2335,25 +2338,25 @@
         <v>74</v>
       </c>
       <c r="K55">
-        <v>0.01168770453482936</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N55">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2114</v>
+        <v>876</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2361,7 +2364,7 @@
         <v>75</v>
       </c>
       <c r="K56">
-        <v>0.009383797309978105</v>
+        <v>0.01402524544179523</v>
       </c>
       <c r="L56">
         <v>30</v>
@@ -2379,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>3167</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2387,25 +2390,51 @@
         <v>76</v>
       </c>
       <c r="K57">
-        <v>0.007409793814432989</v>
+        <v>0.009339774557165861</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N57">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O57">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>3081</v>
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58">
+        <v>0.004063769928102532</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>15</v>
+      </c>
+      <c r="N58">
+        <v>0.87</v>
+      </c>
+      <c r="O58">
+        <v>0.13</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3186</v>
       </c>
     </row>
   </sheetData>
